--- a/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmos.xlsx
+++ b/cmip6/models/miroc-es2h/cmip6_miroc_miroc-es2h_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>MIROC-ES2H</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>
